--- a/002236_大华股份/大华股份.xlsx
+++ b/002236_大华股份/大华股份.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/002236_大华股份/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="885" windowWidth="25605" windowHeight="14775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="估值" sheetId="3" r:id="rId1"/>
@@ -13,20 +18,21 @@
     <sheet name="应收" sheetId="7" r:id="rId4"/>
     <sheet name="存货" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>净利润</t>
     <rPh sb="0" eb="1">
@@ -743,10 +749,80 @@
       <t>wai'bao</t>
     </rPh>
     <rPh sb="242" eb="243">
-      <t>xiang'mu'xing</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>gong'si</t>
+      <t>xiang'mu'xinggong'si</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股本</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gu'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价格</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期涨幅</t>
+    <rPh sb="0" eb="1">
+      <t>yu'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合增长</t>
+    <rPh sb="0" eb="1">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近5年复合增长</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流折扣</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin'liu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhe'kou</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -754,12 +830,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -845,6 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1125,29 +1202,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1"/>
-    <row r="2" spans="1:11" ht="20.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1259,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -1215,7 +1292,7 @@
         <v>2529426468.6100001</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1256,250 +1333,291 @@
         <v>6.3353070688488167E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(K3/C3)^(1/8)-1</f>
+        <v>0.32875409352450924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(K3/G3)^(1/4)-1</f>
+        <v>0.21976032263500711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <f>SUM(D4:K4)/8</f>
-        <v>0.35346542884258397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="13">
-        <f>K3*0.3</f>
+      <c r="F8" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <f>K3*F9</f>
         <v>758827940.58300006</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B9" s="12">
         <v>0.05</v>
       </c>
-      <c r="C8" s="12">
-        <v>15</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C9" s="12">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12">
         <v>0.15</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14">
+      <c r="F9" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14">
         <v>0.18</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>0.18</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>0.18</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <v>0.18</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="14">
         <v>0.18</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="12" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B12" s="12">
         <v>2019</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C12" s="12">
         <v>2020</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>2021</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>2022</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>2023</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="12" t="s">
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="15">
-        <f>A8*(1+D8)</f>
+      <c r="B13" s="15">
+        <f>A9*(1+D9)</f>
         <v>872652131.67044997</v>
       </c>
-      <c r="C12" s="15">
-        <f>B12*(1+D8)</f>
+      <c r="C13" s="15">
+        <f>B13*(1+D9)</f>
         <v>1003549951.4210174</v>
       </c>
-      <c r="D12" s="15">
-        <f>C12*(1+D8)</f>
+      <c r="D13" s="15">
+        <f>C13*(1+D9)</f>
         <v>1154082444.1341698</v>
       </c>
-      <c r="E12" s="15">
-        <f>D12*(1+D8)</f>
+      <c r="E13" s="15">
+        <f>D13*(1+D9)</f>
         <v>1327194810.7542951</v>
       </c>
-      <c r="F12" s="15">
-        <f>E12*(1+D8)</f>
+      <c r="F13" s="15">
+        <f>E13*(1+D9)</f>
         <v>1526274032.3674393</v>
       </c>
-      <c r="G12" s="15">
-        <f>F12*C8</f>
-        <v>22894110485.511589</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="12" t="s">
+      <c r="G13" s="15">
+        <f>F13*C9</f>
+        <v>30525480647.348785</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="13">
-        <f>B12/(1+B8)</f>
+      <c r="B14" s="13">
+        <f>B13/(1+B9)</f>
         <v>831097268.25757134</v>
       </c>
-      <c r="C13" s="13">
-        <f>C12/(1+B8)^2</f>
+      <c r="C14" s="13">
+        <f>C13/(1+B9)^2</f>
         <v>910249389.04400671</v>
       </c>
-      <c r="D13" s="13">
-        <f>D12/(1+B8)^3</f>
+      <c r="D14" s="13">
+        <f>D13/(1+B9)^3</f>
         <v>996939807.04819751</v>
       </c>
-      <c r="E13" s="13">
-        <f>E12/(1+B8)^4</f>
+      <c r="E14" s="13">
+        <f>E13/(1+B9)^4</f>
         <v>1091886455.3385019</v>
       </c>
-      <c r="F13" s="13">
-        <f>F12/(1+B8)^5</f>
+      <c r="F14" s="13">
+        <f>F13/(1+B9)^5</f>
         <v>1195875641.5612164</v>
       </c>
-      <c r="G13" s="13">
-        <f>G12/(1+B8)^4</f>
-        <v>18835041354.589157</v>
-      </c>
-      <c r="H13" s="13">
-        <f>SUM(B13:G13)</f>
-        <v>23861089915.83865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="13">
+        <f>G13/(1+B9)^4</f>
+        <v>25113388472.785545</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(B14:G14)</f>
+        <v>30139437034.035038</v>
+      </c>
+      <c r="I14" s="18">
+        <v>2997621930</v>
+      </c>
+      <c r="J14">
+        <f>H14/I14</f>
+        <v>10.054449072580356</v>
+      </c>
+      <c r="K14">
+        <v>14.57</v>
+      </c>
+      <c r="L14" s="2">
+        <f>J14/K14</f>
+        <v>0.69007886565410814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="13">
-        <f>H13*E8</f>
-        <v>16702762941.087053</v>
-      </c>
-      <c r="J14">
+      <c r="H15" s="13">
+        <f>H14*E9</f>
+        <v>21097605923.824524</v>
+      </c>
+      <c r="J15">
         <v>2018</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K15" s="5">
         <v>2529426468.6100001</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="J15">
-        <f>J14-1</f>
-        <v>2017</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2378726820.2199998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J16">
         <f>J15-1</f>
+        <v>2017</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2378726820.2199998</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f>J16-1</f>
         <v>2016</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <v>1825199447.95</v>
       </c>
     </row>
-    <row r="17" spans="10:11">
-      <c r="J17">
-        <f t="shared" ref="J17:J22" si="1">J16-1</f>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" ref="J18:J23" si="1">J17-1</f>
         <v>2015</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K18" s="5">
         <v>1372301211.8699999</v>
       </c>
     </row>
-    <row r="18" spans="10:11">
-      <c r="J18">
-        <f>J17-1</f>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f>J18-1</f>
         <v>2014</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="5">
         <v>1142678484.6099999</v>
       </c>
     </row>
-    <row r="19" spans="10:11">
-      <c r="J19">
+    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <v>1130921915.51</v>
       </c>
     </row>
-    <row r="20" spans="10:11">
-      <c r="J20">
-        <f>J19-1</f>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f>J20-1</f>
         <v>2012</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <v>700155145.04999995</v>
       </c>
     </row>
-    <row r="21" spans="10:11">
-      <c r="J21">
+    <row r="22" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <v>377983123.51999998</v>
       </c>
     </row>
-    <row r="22" spans="10:11">
-      <c r="J22">
+    <row r="23" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="5">
         <v>260294585.96000001</v>
       </c>
     </row>
@@ -1513,32 +1631,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="21" width="17.875" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="17.875" customWidth="1"/>
-    <col min="24" max="26" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.625" customWidth="1"/>
-    <col min="29" max="29" width="18.125" customWidth="1"/>
+    <col min="14" max="21" width="17.83203125" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17.83203125" customWidth="1"/>
+    <col min="24" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" customWidth="1"/>
+    <col min="29" max="29" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1715,7 +1833,7 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -1798,7 +1916,7 @@
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>A5-1</f>
         <v>2016</v>
@@ -1883,7 +2001,7 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7:A12" si="5">A6-1</f>
         <v>2015</v>
@@ -1914,7 +2032,7 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>2.9802322387695313E-7</v>
+        <v>2.9802322387695312E-7</v>
       </c>
       <c r="J7" s="5">
         <v>192281999.66999999</v>
@@ -1968,7 +2086,7 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>A7-1</f>
         <v>2014</v>
@@ -2055,7 +2173,7 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
@@ -2140,7 +2258,7 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>A9-1</f>
         <v>2012</v>
@@ -2225,7 +2343,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75">
+    <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
@@ -2310,7 +2428,7 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>2010</v>
@@ -2393,7 +2511,7 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2498,7 +2616,7 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2527,7 +2645,7 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2555,7 +2673,7 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:29" ht="170.1" customHeight="1">
+    <row r="16" spans="1:29" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>53</v>
       </c>
@@ -2587,7 +2705,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2617,7 +2735,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2664,13 +2782,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2684,7 +2802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -2699,7 +2817,7 @@
         <v>0.22084933132346027</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -2715,7 +2833,7 @@
         <v>0.24993790583979392</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A13" si="1">A5-1</f>
         <v>2016</v>
@@ -2731,7 +2849,7 @@
         <v>0.24147965875180533</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>2015</v>
@@ -2747,7 +2865,7 @@
         <v>0.23453741926343227</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>2014</v>
@@ -2763,7 +2881,7 @@
         <v>0.24385179611336147</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>2013</v>
@@ -2779,7 +2897,7 @@
         <v>0.35755213526579355</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>2012</v>
@@ -2795,7 +2913,7 @@
         <v>0.38042083816289102</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>2011</v>
@@ -2811,7 +2929,7 @@
         <v>0.28024960500969937</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>2010</v>
@@ -2827,7 +2945,7 @@
         <v>0.26033340853605191</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>2009</v>
@@ -2840,52 +2958,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="7:9">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="7:9">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="7:9">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="7:9">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="7:9">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="7:9">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="7:9">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="7:9">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="7:9">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2904,7 +3022,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2919,16 +3037,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
+    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +3084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -3006,7 +3124,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -3047,7 +3165,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -3061,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -3075,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -3089,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -3103,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -3117,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -3143,7 +3261,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -3163,7 +3281,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F13" s="2"/>
       <c r="L13" s="3"/>
     </row>

--- a/002236_大华股份/大华股份.xlsx
+++ b/002236_大华股份/大华股份.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/002236_大华股份/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="估值" sheetId="3" r:id="rId1"/>
@@ -18,14 +13,13 @@
     <sheet name="应收" sheetId="7" r:id="rId4"/>
     <sheet name="存货" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -830,12 +824,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,13 +909,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1204,27 +1198,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1"/>
+    <row r="2" spans="1:12" ht="20.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1253,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>2529426468.6100001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1327,7 @@
         <v>6.3353070688488167E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1342,7 +1336,7 @@
         <v>0.32875409352450924</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1351,7 +1345,7 @@
         <v>0.21976032263500711</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="13">
         <f>K3*F9</f>
         <v>758827940.58300006</v>
@@ -1392,10 +1386,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="12"/>
       <c r="B11" s="14">
         <v>0.18</v>
@@ -1415,7 +1409,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +1445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
@@ -1481,7 +1475,7 @@
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
@@ -1513,7 +1507,7 @@
         <f>SUM(B14:G14)</f>
         <v>30139437034.035038</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <v>2997621930</v>
       </c>
       <c r="J14">
@@ -1528,7 +1522,7 @@
         <v>0.69007886565410814</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1549,7 +1543,7 @@
         <v>2529426468.6100001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="J16">
         <f>J15-1</f>
         <v>2017</v>
@@ -1558,7 +1552,7 @@
         <v>2378726820.2199998</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:11">
       <c r="J17">
         <f>J16-1</f>
         <v>2016</v>
@@ -1567,7 +1561,7 @@
         <v>1825199447.95</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="10:11">
       <c r="J18">
         <f t="shared" ref="J18:J23" si="1">J17-1</f>
         <v>2015</v>
@@ -1576,7 +1570,7 @@
         <v>1372301211.8699999</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="10:11">
       <c r="J19">
         <f>J18-1</f>
         <v>2014</v>
@@ -1585,7 +1579,7 @@
         <v>1142678484.6099999</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="10:11">
       <c r="J20">
         <f t="shared" si="1"/>
         <v>2013</v>
@@ -1594,7 +1588,7 @@
         <v>1130921915.51</v>
       </c>
     </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="10:11">
       <c r="J21">
         <f>J20-1</f>
         <v>2012</v>
@@ -1603,7 +1597,7 @@
         <v>700155145.04999995</v>
       </c>
     </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="10:11">
       <c r="J22">
         <f t="shared" si="1"/>
         <v>2011</v>
@@ -1612,7 +1606,7 @@
         <v>377983123.51999998</v>
       </c>
     </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="10:11">
       <c r="J23">
         <f t="shared" si="1"/>
         <v>2010</v>
@@ -1631,32 +1625,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="21" width="17.83203125" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="17.83203125" customWidth="1"/>
-    <col min="24" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" customWidth="1"/>
-    <col min="29" max="29" width="18.1640625" customWidth="1"/>
+    <col min="14" max="21" width="17.875" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="17.875" customWidth="1"/>
+    <col min="24" max="26" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.625" customWidth="1"/>
+    <col min="29" max="29" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29">
       <c r="J2" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1833,7 +1827,7 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -1916,7 +1910,7 @@
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6">
         <f>A5-1</f>
         <v>2016</v>
@@ -2001,7 +1995,7 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7">
         <f t="shared" ref="A7:A12" si="5">A6-1</f>
         <v>2015</v>
@@ -2032,7 +2026,7 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="3"/>
-        <v>2.9802322387695312E-7</v>
+        <v>2.9802322387695313E-7</v>
       </c>
       <c r="J7" s="5">
         <v>192281999.66999999</v>
@@ -2086,7 +2080,7 @@
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8">
         <f>A7-1</f>
         <v>2014</v>
@@ -2173,7 +2167,7 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
@@ -2258,7 +2252,7 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10">
         <f>A9-1</f>
         <v>2012</v>
@@ -2343,7 +2337,7 @@
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15.75">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
@@ -2428,7 +2422,7 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12">
         <f t="shared" si="5"/>
         <v>2010</v>
@@ -2511,7 +2505,7 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2616,7 +2610,7 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2645,7 +2639,7 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2673,23 +2667,23 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:29" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:29" ht="170.1" customHeight="1">
+      <c r="A16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -2705,7 +2699,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2735,7 +2729,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2771,6 +2765,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2782,13 +2777,13 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -2817,7 +2812,7 @@
         <v>0.22084933132346027</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -2833,7 +2828,7 @@
         <v>0.24993790583979392</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <f t="shared" ref="A6:A13" si="1">A5-1</f>
         <v>2016</v>
@@ -2849,7 +2844,7 @@
         <v>0.24147965875180533</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>2015</v>
@@ -2865,7 +2860,7 @@
         <v>0.23453741926343227</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>2014</v>
@@ -2881,7 +2876,7 @@
         <v>0.24385179611336147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>2013</v>
@@ -2897,7 +2892,7 @@
         <v>0.35755213526579355</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>2012</v>
@@ -2913,7 +2908,7 @@
         <v>0.38042083816289102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>2011</v>
@@ -2929,7 +2924,7 @@
         <v>0.28024960500969937</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>2010</v>
@@ -2945,7 +2940,7 @@
         <v>0.26033340853605191</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>2009</v>
@@ -2958,52 +2953,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:9">
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:9">
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:9">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:9">
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:9">
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:9">
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:9">
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:9">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:9">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="7:9">
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -3022,7 +3017,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3037,16 +3032,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -3124,7 +3119,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -3165,7 +3160,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -3179,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -3193,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -3207,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -3221,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -3235,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -3261,7 +3256,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -3281,7 +3276,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="F13" s="2"/>
       <c r="L13" s="3"/>
     </row>
